--- a/04-LinearRegression-1/youTryIt/Advertising.xlsx
+++ b/04-LinearRegression-1/youTryIt/Advertising.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markcohen/Documents/MCLA/Courses/ml-public/04-LinearRegression-1/youTryIt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1DE2E2-DD27-D746-9850-2AA3D9DDEC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBCD260-C507-1E47-876E-F4044DA726D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="4840" windowWidth="28040" windowHeight="17440" xr2:uid="{B9BE1299-BDDE-434B-94C4-491FA21BEE08}"/>
+    <workbookView xWindow="5560" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{B9BE1299-BDDE-434B-94C4-491FA21BEE08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Quantity Sold</t>
   </si>
   <si>
     <t>Advertising</t>
-  </si>
-  <si>
-    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -403,103 +400,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF17844-76F5-154F-B145-EE7C7431F1DB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>2800</v>
       </c>
       <c r="B2">
-        <v>2800</v>
-      </c>
-      <c r="C2">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>543</v>
       </c>
       <c r="B5">
-        <v>500</v>
-      </c>
-      <c r="C5">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4982</v>
       </c>
       <c r="B6">
-        <v>32000</v>
-      </c>
-      <c r="C6">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>832</v>
       </c>
       <c r="B7">
-        <v>1800</v>
-      </c>
-      <c r="C7">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>912</v>
       </c>
       <c r="B8">
-        <v>900</v>
-      </c>
-      <c r="C8">
-        <v>5600</v>
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>789</v>
+      </c>
+      <c r="B9">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1020</v>
+      </c>
+      <c r="B10">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2343</v>
+      </c>
+      <c r="B11">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>874</v>
+      </c>
+      <c r="B12">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>654</v>
+      </c>
+      <c r="B13">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>890</v>
+      </c>
+      <c r="B14">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1245</v>
+      </c>
+      <c r="B15">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>982</v>
+      </c>
+      <c r="B16">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>320</v>
+      </c>
+      <c r="B17">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>452</v>
+      </c>
+      <c r="B18">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>367</v>
+      </c>
+      <c r="B19">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>876</v>
+      </c>
+      <c r="B20">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1200</v>
+      </c>
+      <c r="B21">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>430</v>
+      </c>
+      <c r="B22">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>230</v>
+      </c>
+      <c r="B23">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3412</v>
+      </c>
+      <c r="B24">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>652</v>
+      </c>
+      <c r="B25">
+        <v>2369</v>
       </c>
     </row>
   </sheetData>
